--- a/Projects.xlsx
+++ b/Projects.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="71">
   <si>
     <t>S.No.</t>
   </si>
@@ -211,6 +211,27 @@
   </si>
   <si>
     <t>syedelias2001@gmail.com</t>
+  </si>
+  <si>
+    <t>Pradeep</t>
+  </si>
+  <si>
+    <t>Muhammad Mujtaba</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>80% completed. Responsiveness to be added.</t>
+  </si>
+  <si>
+    <t>Tried. But not used sections for creating the layout, so not getting expected output.</t>
+  </si>
+  <si>
+    <t>Karthick</t>
+  </si>
+  <si>
+    <t>karthickseetha2@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -301,7 +322,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -355,6 +376,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -637,10 +667,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -653,10 +683,11 @@
     <col min="6" max="6" width="19" style="15" customWidth="1"/>
     <col min="7" max="7" width="26.85546875" style="4" customWidth="1"/>
     <col min="8" max="8" width="32" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="4"/>
+    <col min="9" max="9" width="25.42578125" style="20" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -681,8 +712,11 @@
       <c r="H1" s="11" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I1" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -703,8 +737,11 @@
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I2" s="21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -725,8 +762,11 @@
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I3" s="21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -747,8 +787,9 @@
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I4" s="21"/>
+    </row>
+    <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -769,8 +810,9 @@
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I5" s="21"/>
+    </row>
+    <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -791,8 +833,9 @@
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I6" s="21"/>
+    </row>
+    <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -813,8 +856,9 @@
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I7" s="21"/>
+    </row>
+    <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -835,8 +879,9 @@
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I8" s="21"/>
+    </row>
+    <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -857,8 +902,9 @@
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I9" s="21"/>
+    </row>
+    <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -879,8 +925,9 @@
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I10" s="21"/>
+    </row>
+    <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -901,8 +948,9 @@
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I11" s="21"/>
+    </row>
+    <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -923,8 +971,9 @@
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I12" s="21"/>
+    </row>
+    <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -945,8 +994,9 @@
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I13" s="21"/>
+    </row>
+    <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -967,8 +1017,9 @@
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I14" s="21"/>
+    </row>
+    <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -989,8 +1040,9 @@
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I15" s="21"/>
+    </row>
+    <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -1011,8 +1063,9 @@
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I16" s="21"/>
+    </row>
+    <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -1027,8 +1080,9 @@
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I17" s="21"/>
+    </row>
+    <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -1043,14 +1097,19 @@
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I18" s="21"/>
+    </row>
+    <row r="19" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="16"/>
+      <c r="B19" s="16" t="s">
+        <v>65</v>
+      </c>
       <c r="C19" s="16"/>
-      <c r="D19" s="3"/>
+      <c r="D19" s="3">
+        <v>6382933206</v>
+      </c>
       <c r="E19" s="7" t="s">
         <v>24</v>
       </c>
@@ -1059,14 +1118,19 @@
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I19" s="21"/>
+    </row>
+    <row r="20" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="16"/>
+      <c r="B20" s="16" t="s">
+        <v>64</v>
+      </c>
       <c r="C20" s="16"/>
-      <c r="D20" s="3"/>
+      <c r="D20" s="3">
+        <v>9751058286</v>
+      </c>
       <c r="E20" s="7" t="s">
         <v>25</v>
       </c>
@@ -1075,14 +1139,21 @@
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I20" s="21"/>
+    </row>
+    <row r="21" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="9"/>
+      <c r="B21" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="9">
+        <v>6385808140</v>
+      </c>
       <c r="E21" s="8" t="s">
         <v>26</v>
       </c>
@@ -1091,8 +1162,9 @@
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I21" s="21"/>
+    </row>
+    <row r="22" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -1107,8 +1179,9 @@
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I22" s="21"/>
+    </row>
+    <row r="23" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -1123,8 +1196,9 @@
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
-    </row>
-    <row r="24" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I23" s="21"/>
+    </row>
+    <row r="24" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -1139,8 +1213,9 @@
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I24" s="21"/>
+    </row>
+    <row r="25" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -1155,8 +1230,9 @@
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
-    </row>
-    <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I25" s="21"/>
+    </row>
+    <row r="26" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
@@ -1165,8 +1241,9 @@
       <c r="F26" s="14"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
-    </row>
-    <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I26" s="21"/>
+    </row>
+    <row r="27" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
@@ -1175,8 +1252,9 @@
       <c r="F27" s="14"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
-    </row>
-    <row r="28" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I27" s="21"/>
+    </row>
+    <row r="28" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
@@ -1185,8 +1263,9 @@
       <c r="F28" s="14"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
-    </row>
-    <row r="29" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I28" s="21"/>
+    </row>
+    <row r="29" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
@@ -1195,8 +1274,9 @@
       <c r="F29" s="14"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
-    </row>
-    <row r="30" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I29" s="21"/>
+    </row>
+    <row r="30" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9"/>
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
@@ -1205,13 +1285,13 @@
       <c r="F30" s="14"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
-    </row>
-    <row r="31" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="I30" s="21"/>
+    </row>
+    <row r="31" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="W0G/8yYuSWK47q5NonmXAVhKdstTKACjHxd1joKWYRofw5zPahpwaDIt1jbxNH1b2+nyISQrhHfKtRZjC5VQ+g==" saltValue="dNe++yIgBBsQ0vrHrswjdg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1"/>
     <hyperlink ref="E3" r:id="rId2"/>
@@ -1252,8 +1332,9 @@
     <hyperlink ref="C14" r:id="rId37"/>
     <hyperlink ref="C15" r:id="rId38"/>
     <hyperlink ref="C16" r:id="rId39"/>
+    <hyperlink ref="C21" r:id="rId40"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId40"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId41"/>
 </worksheet>
 </file>
--- a/Projects.xlsx
+++ b/Projects.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="73">
   <si>
     <t>S.No.</t>
   </si>
@@ -232,6 +232,12 @@
   </si>
   <si>
     <t>karthickseetha2@gmail.com</t>
+  </si>
+  <si>
+    <t>Arun Kumar</t>
+  </si>
+  <si>
+    <t>arunabi1819@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -322,7 +328,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -385,6 +391,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -670,7 +679,7 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1069,9 +1078,15 @@
       <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="3"/>
+      <c r="B17" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="3">
+        <v>6374247005</v>
+      </c>
       <c r="E17" s="7" t="s">
         <v>23</v>
       </c>
@@ -1333,8 +1348,9 @@
     <hyperlink ref="C15" r:id="rId38"/>
     <hyperlink ref="C16" r:id="rId39"/>
     <hyperlink ref="C21" r:id="rId40"/>
+    <hyperlink ref="C17" r:id="rId41"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId41"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId42"/>
 </worksheet>
 </file>